--- a/Benchmark/YNQ_Benchmark/counting.xlsx
+++ b/Benchmark/YNQ_Benchmark/counting.xlsx
@@ -298,7 +298,7 @@
     <t>Are there exactly 5 butterflies that are not predominantly green in color but very colorful in the picture?</t>
   </si>
   <si>
-    <t>Are there exactly 5 typical spoons in the picture?</t>
+    <t>Are there exactly 6 typical spoons in the picture?</t>
   </si>
   <si>
     <t>Are there exactly 4 glasses in the picture?</t>
@@ -517,7 +517,7 @@
     <t>Are there exactly 2 scissors in the picture?</t>
   </si>
   <si>
-    <t>Are there exactly 5 cushions depicted in the picture?</t>
+    <t>Are there exactly 5 pillows depicted in the picture?</t>
   </si>
   <si>
     <t>Are there exactly 4 paintings in the picture?</t>
